--- a/tests/databooks/databook_model_simple.xlsx
+++ b/tests/databooks/databook_model_simple.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14445" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Transfer Definitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Transfer Details" sheetId="3" r:id="rId3"/>
-    <sheet name="Population Sizes" sheetId="4" r:id="rId4"/>
-    <sheet name="Prevalence" sheetId="5" r:id="rId5"/>
-    <sheet name="Mortality Rates" sheetId="6" r:id="rId6"/>
-    <sheet name="Epidemic Characteristics" sheetId="7" r:id="rId7"/>
-    <sheet name="Cascade Parameters" sheetId="8" r:id="rId8"/>
+    <sheet name="Population Contacts" sheetId="9" r:id="rId2"/>
+    <sheet name="Transfer Definitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Transfer Details" sheetId="3" r:id="rId4"/>
+    <sheet name="Population Sizes" sheetId="4" r:id="rId5"/>
+    <sheet name="Prevalence" sheetId="5" r:id="rId6"/>
+    <sheet name="Mortality Rates" sheetId="6" r:id="rId7"/>
+    <sheet name="Epidemic Characteristics" sheetId="7" r:id="rId8"/>
+    <sheet name="Cascade Parameters" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +83,6 @@
     <t>Active Infections</t>
   </si>
   <si>
-    <t>Latent Infection Rate (Susceptible)</t>
-  </si>
-  <si>
     <t>Latent Infection Rate (Vaccinated)</t>
   </si>
   <si>
@@ -146,6 +144,9 @@
   </si>
   <si>
     <t>Recovered</t>
+  </si>
+  <si>
+    <t>Interaction Impact Weights</t>
   </si>
 </sst>
 </file>
@@ -161,15 +162,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,13 +184,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +509,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +533,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -526,10 +547,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -545,10 +566,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'Population Definitions'!B2</f>
+        <v>SAC</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'Population Definitions'!B3</f>
+        <v>GEN</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>'Population Definitions'!B2</f>
+        <v>SAC</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>'Population Definitions'!B3</f>
+        <v>GEN</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,12 +766,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +1022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
@@ -1053,7 +1127,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1162,12 +1236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,8 +1318,8 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,10000,"N.A.")</f>
-        <v>10000</v>
+        <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1260,8 +1334,8 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,10000,"N.A.")</f>
-        <v>10000</v>
+        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1335,8 +1409,8 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,20000,"N.A.")</f>
-        <v>20000</v>
+        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1426,8 +1500,8 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <f>IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,20000,"N.A.")</f>
-        <v>20000</v>
+        <f>IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1442,8 +1516,8 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,20000,"N.A.")</f>
-        <v>20000</v>
+        <f>IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,8000,"N.A.")</f>
+        <v>8000</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1451,7 +1525,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1517,8 +1591,8 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,10000,"N.A.")</f>
-        <v>10000</v>
+        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1533,8 +1607,8 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <f>IF(SUMPRODUCT(--(E15:T15&lt;&gt;""))=0,10000,"N.A.")</f>
-        <v>10000</v>
+        <f>IF(SUMPRODUCT(--(E15:T15&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1542,7 +1616,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1608,8 +1682,8 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <f>IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,10000,"N.A.")</f>
-        <v>10000</v>
+        <f>IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1624,8 +1698,8 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <f>IF(SUMPRODUCT(--(E19:T19&lt;&gt;""))=0,10000,"N.A.")</f>
-        <v>10000</v>
+        <f>IF(SUMPRODUCT(--(E19:T19&lt;&gt;""))=0,1500,"N.A.")</f>
+        <v>1500</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1633,7 +1707,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1724,7 +1798,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1790,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1854,12 +1928,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1959,7 +2033,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2065,12 +2139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -2163,8 +2237,8 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>0.01</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2183,12 +2257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2347,7 +2421,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2363,7 +2437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2381,7 +2455,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2563,7 +2637,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2745,7 +2819,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2836,7 +2910,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -3018,7 +3092,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -3107,163 +3181,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>2000</v>
-      </c>
-      <c r="F41">
-        <v>2001</v>
-      </c>
-      <c r="G41">
-        <v>2002</v>
-      </c>
-      <c r="H41">
-        <v>2003</v>
-      </c>
-      <c r="I41">
-        <v>2004</v>
-      </c>
-      <c r="J41">
-        <v>2005</v>
-      </c>
-      <c r="K41">
-        <v>2006</v>
-      </c>
-      <c r="L41">
-        <v>2007</v>
-      </c>
-      <c r="M41">
-        <v>2008</v>
-      </c>
-      <c r="N41">
-        <v>2009</v>
-      </c>
-      <c r="O41">
-        <v>2010</v>
-      </c>
-      <c r="P41">
-        <v>2011</v>
-      </c>
-      <c r="Q41">
-        <v>2012</v>
-      </c>
-      <c r="R41">
-        <v>2013</v>
-      </c>
-      <c r="S41">
-        <v>2014</v>
-      </c>
-      <c r="T41">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Children</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <f>IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>General Population</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <f>IF(SUMPRODUCT(--(E43:T43&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="22">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B43">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38:B39 B34:B35 B30:B31 B26:B27 B22:B23 B18:B19 B14:B15 B10:B11 B6:B7 B2:B3">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
   </dataValidations>
